--- a/process/resources/Pages.xlsx
+++ b/process/resources/Pages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carte 32 Go\Coding_WithGit\Vite-KingdomCreator-New\process\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D4C34CB-D974-4396-ABFB-1908DFFD8BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD179481-1C19-4C54-98DE-2E83FE0418E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11415" yWindow="-15870" windowWidth="25440" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Pages!$A$2:$H$906</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5655" uniqueCount="4496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5855" uniqueCount="4640">
   <si>
     <t>PageName</t>
   </si>
@@ -13522,13 +13522,445 @@
   </si>
   <si>
     <t>Aucun Set sélectionné ! \n\nChoississez au moins 1 set pour obtenir un résultat.</t>
+  </si>
+  <si>
+    <t>cards.risingsun</t>
+  </si>
+  <si>
+    <t>risingsun_alley.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_aristocrat.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_artist.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_change.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_craftsman.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_daimyo.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_event_amass.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">risingsun_event_asceticism.jpg    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">risingsun_event_continue.jpg      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">risingsun_event_credit.jpg        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">risingsun_event_foresight.jpg     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">risingsun_event_gather.jpg        </t>
+  </si>
+  <si>
+    <t xml:space="preserve">risingsun_event_kintsugi.jpg      </t>
+  </si>
+  <si>
+    <t xml:space="preserve">risingsun_event_practice.jpg      </t>
+  </si>
+  <si>
+    <t>risingsun_event_receivetribute.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_event_seatrade.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_fishmonger.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_goldmine.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_imperialenvoy.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_kitsune.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_litter.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_mountainshrine.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_ninja.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_poet.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_approachingarmy.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_bidingtime.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_bureaucracy.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_divinewind.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_enlightenment.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_flourishingtrade.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_goodharvest.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_greatleader.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_growth.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_harshwinter.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_kindemperor.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_panic.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_progress.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_rapidexpansion.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_prophecy_sickness.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_rice.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_ricebroker.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_riverboat.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_rivershrine.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_ronin.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_rootcellar.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_rusticvillage.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_samurai.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_snakewitch.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_tanuki.jpg</t>
+  </si>
+  <si>
+    <t>risingsun_teahouse.jpg</t>
+  </si>
+  <si>
+    <t>Ruelle</t>
+  </si>
+  <si>
+    <t>Aristocrate</t>
+  </si>
+  <si>
+    <t>Artiste</t>
+  </si>
+  <si>
+    <t>Changement</t>
+  </si>
+  <si>
+    <t>Ouvrier</t>
+  </si>
+  <si>
+    <t>Daimyo</t>
+  </si>
+  <si>
+    <t>Poissonnière</t>
+  </si>
+  <si>
+    <t>Mine d'or</t>
+  </si>
+  <si>
+    <t>Délégué impérial</t>
+  </si>
+  <si>
+    <t>Kitsune</t>
+  </si>
+  <si>
+    <t>Chaise à porteurs</t>
+  </si>
+  <si>
+    <t>Sanctuaire de la montagne</t>
+  </si>
+  <si>
+    <t>Ninja</t>
+  </si>
+  <si>
+    <t>Poétesse</t>
+  </si>
+  <si>
+    <t>Riz</t>
+  </si>
+  <si>
+    <t>Courtier en riz</t>
+  </si>
+  <si>
+    <t>Sanctuaire de la rivière</t>
+  </si>
+  <si>
+    <t>Bateau fluvial</t>
+  </si>
+  <si>
+    <t>Ronin</t>
+  </si>
+  <si>
+    <t>Cellier à légumes</t>
+  </si>
+  <si>
+    <t>Village rustique</t>
+  </si>
+  <si>
+    <t>Samouraï</t>
+  </si>
+  <si>
+    <t>Sorcière aux serpents</t>
+  </si>
+  <si>
+    <t>Tanuki</t>
+  </si>
+  <si>
+    <t>Salon de thé</t>
+  </si>
+  <si>
+    <t>Amassement</t>
+  </si>
+  <si>
+    <t>Ascèse</t>
+  </si>
+  <si>
+    <t>Prolongation</t>
+  </si>
+  <si>
+    <t>Crédit</t>
+  </si>
+  <si>
+    <t>Prévoyance</t>
+  </si>
+  <si>
+    <t>Cueillette</t>
+  </si>
+  <si>
+    <t>Kintsugi</t>
+  </si>
+  <si>
+    <t>Hommage rendu</t>
+  </si>
+  <si>
+    <t>Commerce maritime</t>
+  </si>
+  <si>
+    <t>Armée en approche</t>
+  </si>
+  <si>
+    <t>Attendre son heure</t>
+  </si>
+  <si>
+    <t>Bureaucratie</t>
+  </si>
+  <si>
+    <t>Vent divin</t>
+  </si>
+  <si>
+    <t>Illumination</t>
+  </si>
+  <si>
+    <t>Commerce florissant</t>
+  </si>
+  <si>
+    <t>Bonne récolte</t>
+  </si>
+  <si>
+    <t>Grand dirigeant</t>
+  </si>
+  <si>
+    <t>Croissance</t>
+  </si>
+  <si>
+    <t>Hiver rude</t>
+  </si>
+  <si>
+    <t>Bon empereur</t>
+  </si>
+  <si>
+    <t>Panique</t>
+  </si>
+  <si>
+    <t>Progrès</t>
+  </si>
+  <si>
+    <t>Expansion rapide</t>
+  </si>
+  <si>
+    <t>Maladie</t>
+  </si>
+  <si>
+    <t>Alley</t>
+  </si>
+  <si>
+    <t>Aristocrat</t>
+  </si>
+  <si>
+    <t>Artist</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Craftsman</t>
+  </si>
+  <si>
+    <t>Fishmonger</t>
+  </si>
+  <si>
+    <t>Gold Mine</t>
+  </si>
+  <si>
+    <t>Imperial Envoy</t>
+  </si>
+  <si>
+    <t>Litter</t>
+  </si>
+  <si>
+    <t>Mountain Shrine</t>
+  </si>
+  <si>
+    <t>Poet</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t>Rice Broker</t>
+  </si>
+  <si>
+    <t>River Shrine</t>
+  </si>
+  <si>
+    <t>Riverboat</t>
+  </si>
+  <si>
+    <t>Root Cellar</t>
+  </si>
+  <si>
+    <t>Rustic Village</t>
+  </si>
+  <si>
+    <t>Samurai</t>
+  </si>
+  <si>
+    <t>Snake Witch</t>
+  </si>
+  <si>
+    <t>Tea House</t>
+  </si>
+  <si>
+    <t>Amass</t>
+  </si>
+  <si>
+    <t>Asceticism</t>
+  </si>
+  <si>
+    <t>Continue</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Foresight</t>
+  </si>
+  <si>
+    <t>Gather</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Receive Tribute</t>
+  </si>
+  <si>
+    <t>Sea Trade</t>
+  </si>
+  <si>
+    <t>Approaching Army</t>
+  </si>
+  <si>
+    <t>Biding Time</t>
+  </si>
+  <si>
+    <t>Bureaucracy</t>
+  </si>
+  <si>
+    <t>Divine Wind</t>
+  </si>
+  <si>
+    <t>Enlightenment</t>
+  </si>
+  <si>
+    <t>Flourishing Trade</t>
+  </si>
+  <si>
+    <t>Good Harvest</t>
+  </si>
+  <si>
+    <t>Great Leader</t>
+  </si>
+  <si>
+    <t>Growth</t>
+  </si>
+  <si>
+    <t>Harsh Winter</t>
+  </si>
+  <si>
+    <t>Kind Emperor</t>
+  </si>
+  <si>
+    <t>Panic</t>
+  </si>
+  <si>
+    <t>Progress</t>
+  </si>
+  <si>
+    <t>Rapid Expansion</t>
+  </si>
+  <si>
+    <t>Sickness</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -13690,6 +14122,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2AA198"/>
       <name val="Consolas"/>
       <family val="3"/>
     </font>
@@ -14056,7 +14494,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
@@ -14068,6 +14506,9 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14391,11 +14832,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H1038"/>
+  <dimension ref="A1:H1089"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="750" topLeftCell="A61" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
+      <pane ySplit="750" topLeftCell="A1049" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A1040" sqref="A1040:A1089"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36993,8 +37434,711 @@
         <v>4431</v>
       </c>
     </row>
+    <row r="1040" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1040" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1040" t="s">
+        <v>4497</v>
+      </c>
+      <c r="C1040" s="9" t="s">
+        <v>4596</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>4547</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1041" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1041" t="s">
+        <v>4498</v>
+      </c>
+      <c r="C1041" s="9" t="s">
+        <v>4597</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>4548</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1042" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1042" t="s">
+        <v>4499</v>
+      </c>
+      <c r="C1042" s="9" t="s">
+        <v>4598</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>4549</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1043" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1043" t="s">
+        <v>4500</v>
+      </c>
+      <c r="C1043" s="9" t="s">
+        <v>4599</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1044" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1044" t="s">
+        <v>4501</v>
+      </c>
+      <c r="C1044" s="9" t="s">
+        <v>4600</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>4551</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1045" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1045" t="s">
+        <v>4502</v>
+      </c>
+      <c r="C1045" s="9" t="s">
+        <v>4552</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>4552</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1046" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1046" t="s">
+        <v>4513</v>
+      </c>
+      <c r="C1046" s="9" t="s">
+        <v>4601</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>4553</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1047" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1047" t="s">
+        <v>4514</v>
+      </c>
+      <c r="C1047" s="9" t="s">
+        <v>4602</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>4554</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1048" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1048" t="s">
+        <v>4515</v>
+      </c>
+      <c r="C1048" s="9" t="s">
+        <v>4603</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1049" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1049" t="s">
+        <v>4516</v>
+      </c>
+      <c r="C1049" s="9" t="s">
+        <v>4556</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>4556</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1050" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1050" t="s">
+        <v>4517</v>
+      </c>
+      <c r="C1050" s="9" t="s">
+        <v>4604</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>4557</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1051" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1051" t="s">
+        <v>4518</v>
+      </c>
+      <c r="C1051" s="9" t="s">
+        <v>4605</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>4558</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1052" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1052" t="s">
+        <v>4519</v>
+      </c>
+      <c r="C1052" s="9" t="s">
+        <v>4559</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>4559</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1053" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1053" t="s">
+        <v>4520</v>
+      </c>
+      <c r="C1053" s="9" t="s">
+        <v>4606</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>4560</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1054" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1054" t="s">
+        <v>4536</v>
+      </c>
+      <c r="C1054" s="9" t="s">
+        <v>4607</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>4561</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1055" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1055" t="s">
+        <v>4537</v>
+      </c>
+      <c r="C1055" s="9" t="s">
+        <v>4608</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>4562</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1056" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1056" t="s">
+        <v>4538</v>
+      </c>
+      <c r="C1056" s="9" t="s">
+        <v>4609</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>4563</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1057" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1057" t="s">
+        <v>4539</v>
+      </c>
+      <c r="C1057" s="9" t="s">
+        <v>4610</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>4564</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1058" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1058" t="s">
+        <v>4540</v>
+      </c>
+      <c r="C1058" s="9" t="s">
+        <v>4565</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>4565</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1059" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1059" t="s">
+        <v>4541</v>
+      </c>
+      <c r="C1059" s="9" t="s">
+        <v>4611</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>4566</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1060" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1060" t="s">
+        <v>4542</v>
+      </c>
+      <c r="C1060" s="9" t="s">
+        <v>4612</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1061" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1061" t="s">
+        <v>4543</v>
+      </c>
+      <c r="C1061" s="9" t="s">
+        <v>4613</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>4568</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1062" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1062" t="s">
+        <v>4544</v>
+      </c>
+      <c r="C1062" s="9" t="s">
+        <v>4614</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1063" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1063" t="s">
+        <v>4545</v>
+      </c>
+      <c r="C1063" s="9" t="s">
+        <v>4570</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>4570</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1064" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1064" t="s">
+        <v>4546</v>
+      </c>
+      <c r="C1064" s="9" t="s">
+        <v>4615</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>4571</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1065" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1065" t="s">
+        <v>4503</v>
+      </c>
+      <c r="C1065" s="9" t="s">
+        <v>4616</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>4572</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1066" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1066" t="s">
+        <v>4504</v>
+      </c>
+      <c r="C1066" s="9" t="s">
+        <v>4617</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>4573</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1067" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1067" t="s">
+        <v>4505</v>
+      </c>
+      <c r="C1067" s="9" t="s">
+        <v>4618</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>4574</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1068" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1068" t="s">
+        <v>4506</v>
+      </c>
+      <c r="C1068" s="9" t="s">
+        <v>4619</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>4575</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1069" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1069" t="s">
+        <v>4507</v>
+      </c>
+      <c r="C1069" s="9" t="s">
+        <v>4620</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>4576</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1070" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1070" t="s">
+        <v>4508</v>
+      </c>
+      <c r="C1070" s="9" t="s">
+        <v>4621</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>4577</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1071" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1071" t="s">
+        <v>4509</v>
+      </c>
+      <c r="C1071" s="9" t="s">
+        <v>4578</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>4578</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1072" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1072" t="s">
+        <v>4510</v>
+      </c>
+      <c r="C1072" s="9" t="s">
+        <v>4622</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>3697</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1073" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1073" t="s">
+        <v>4511</v>
+      </c>
+      <c r="C1073" s="9" t="s">
+        <v>4623</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>4579</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1074" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1074" t="s">
+        <v>4512</v>
+      </c>
+      <c r="C1074" s="9" t="s">
+        <v>4624</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>4580</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1075" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1075" t="s">
+        <v>4521</v>
+      </c>
+      <c r="C1075" s="9" t="s">
+        <v>4625</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>4581</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1076" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1076" t="s">
+        <v>4522</v>
+      </c>
+      <c r="C1076" s="9" t="s">
+        <v>4626</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>4582</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1077" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1077" t="s">
+        <v>4523</v>
+      </c>
+      <c r="C1077" s="9" t="s">
+        <v>4627</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>4583</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1078" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1078" t="s">
+        <v>4524</v>
+      </c>
+      <c r="C1078" s="9" t="s">
+        <v>4628</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>4584</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1079" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1079" t="s">
+        <v>4525</v>
+      </c>
+      <c r="C1079" s="9" t="s">
+        <v>4629</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>4585</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1080" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1080" t="s">
+        <v>4526</v>
+      </c>
+      <c r="C1080" s="9" t="s">
+        <v>4630</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>4586</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1081" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1081" t="s">
+        <v>4527</v>
+      </c>
+      <c r="C1081" s="9" t="s">
+        <v>4631</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>4587</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1082" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1082" t="s">
+        <v>4528</v>
+      </c>
+      <c r="C1082" s="9" t="s">
+        <v>4632</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>4588</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1083" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1083" t="s">
+        <v>4529</v>
+      </c>
+      <c r="C1083" s="9" t="s">
+        <v>4633</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>4589</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1084" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1084" t="s">
+        <v>4530</v>
+      </c>
+      <c r="C1084" s="9" t="s">
+        <v>4634</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>4590</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1085" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1085" t="s">
+        <v>4531</v>
+      </c>
+      <c r="C1085" s="9" t="s">
+        <v>4635</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>4591</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1086" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1086" t="s">
+        <v>4532</v>
+      </c>
+      <c r="C1086" s="9" t="s">
+        <v>4636</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>4592</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1087" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1087" t="s">
+        <v>4533</v>
+      </c>
+      <c r="C1087" s="9" t="s">
+        <v>4637</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>4593</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1088" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1088" t="s">
+        <v>4534</v>
+      </c>
+      <c r="C1088" s="9" t="s">
+        <v>4638</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>4594</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1089" t="s">
+        <v>4496</v>
+      </c>
+      <c r="B1089" t="s">
+        <v>4535</v>
+      </c>
+      <c r="C1089" s="9" t="s">
+        <v>4639</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>4595</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:H906" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B1040:B1089">
+    <sortCondition ref="B1089"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>

--- a/process/resources/Pages.xlsx
+++ b/process/resources/Pages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Carte 32 Go\Coding_WithGit\Vite-KingdomCreator-New\process\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Carte 32 Go\Coding_WithGit\Vite-KingdomCreator-New\process\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54D8A269-EE7C-49ED-A2FF-EE6A15959E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A006E0FE-0991-43A7-852E-061F4FE18613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="75" yWindow="0" windowWidth="24375" windowHeight="15225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pages" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5868" uniqueCount="4644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5871" uniqueCount="4647">
   <si>
     <t>PageName</t>
   </si>
@@ -13966,6 +13966,15 @@
   </si>
   <si>
     <t>addon_ally</t>
+  </si>
+  <si>
+    <t>cards_removed</t>
+  </si>
+  <si>
+    <t>cards removed</t>
+  </si>
+  <si>
+    <t>cartes à ne pas utiliser</t>
   </si>
 </sst>
 </file>
@@ -14847,8 +14856,8 @@
   <dimension ref="A1:H1091"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="750" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
+      <pane ySplit="750" topLeftCell="A148" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B171" sqref="B171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18039,6 +18048,15 @@
       <c r="A170" t="s">
         <v>4459</v>
       </c>
+      <c r="B170" t="s">
+        <v>4644</v>
+      </c>
+      <c r="C170" t="s">
+        <v>4645</v>
+      </c>
+      <c r="F170" t="s">
+        <v>4646</v>
+      </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
